--- a/HLS_man/COP20/COP20_man_tonga_PSIDS.xlsx
+++ b/HLS_man/COP20/COP20_man_tonga_PSIDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC6DB33-628D-464A-86E9-1DD15D0A605F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61F419E-91E2-43D5-B3D2-F6E63DD3CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -901,8 +901,8 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HLS_man/COP20/COP20_man_tonga_PSIDS.xlsx
+++ b/HLS_man/COP20/COP20_man_tonga_PSIDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61F419E-91E2-43D5-B3D2-F6E63DD3CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139A221-6044-4800-8865-A68439B92D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="117">
   <si>
     <t>Relevance</t>
   </si>
@@ -145,13 +145,6 @@
     <t>The issue is too i mportant.</t>
   </si>
   <si>
-    <t>Climate 
-change has as much if not more destructive power than the scourge of terrorism, 
-and we do not hear leaders talk about setting up a voluntary market based 
-response to counter terrorism! There are no endless discussions on whether there 
-should be co -financing measures to protect our citizens.</t>
-  </si>
-  <si>
     <t>Furthermore, we hope to seek clarity on the INDC process at this session.</t>
   </si>
   <si>
@@ -400,9 +393,6 @@
 isolated, but incredibly beautiful and unique island nations”.</t>
   </si>
   <si>
-    <t>utilitarian, prioritarian</t>
-  </si>
-  <si>
     <t>technical resources, financial resources</t>
   </si>
   <si>
@@ -415,34 +405,10 @@
     <t xml:space="preserve">prioritarian </t>
   </si>
   <si>
-    <t>regional</t>
-  </si>
-  <si>
-    <t>eigenlijk alledrie bij elkaar?</t>
-  </si>
-  <si>
     <t>measures</t>
   </si>
   <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
     <t>n.a.</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, policy target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calls for the implementation of a shared ambitious threshold to ensure survival of the nations, the threshold implies sufficientarianism. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working together to adress the shared global challenge (utilitarian), supporting smal island countries, who are the victims of the consequences is prioritarian. </t>
-  </si>
-  <si>
-    <t>prioritarian, utilitarian</t>
   </si>
   <si>
     <t>The guidance to the financing mechanisms should call for flexibility for 
@@ -453,89 +419,102 @@
     <t xml:space="preserve">new UNFCCC policy </t>
   </si>
   <si>
-    <t>prioritarian, libertarian</t>
-  </si>
-  <si>
-    <t>Flexible mechanisms with some freedom indicate libertarian principle. The commensuration of the differentiating needs can be linked to the concept of equity, beeing  Prioritarian</t>
-  </si>
-  <si>
     <t>The Pacific needs certainty and assurances that all countries will do what the eventual treaty will say.</t>
   </si>
   <si>
-    <t>The climate change negotiations are entering a crucial stage as we prepare 
-for developing a new legal instrument. While many terms are being used to 
+    <t xml:space="preserve">Redistribution of resources from developed countries to pacific island countries, which are in this case countries that are worse of and need the support to take on action. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribution of financial resources to the Pacific low island states to ensure adaptation measures can be taken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNFCCC agreements and policies, moral responsibility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support of development partners to SIDS, indicating a prioritarian idea. </t>
+  </si>
+  <si>
+    <t>technical resources</t>
+  </si>
+  <si>
+    <t>COP20_tonga_PSIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working collectively and supporting the worst off, in this case island countries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The climate change negotiations are entering a crucial stage as we prepare 
+for developing a new legal instrument. </t>
+  </si>
+  <si>
+    <t>While many terms are being used to 
 describe it, in the region our stakeholders are very clear that we talk about a 
 legally binding treaty.</t>
   </si>
   <si>
-    <t xml:space="preserve">yes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calling for a legal measures indicates setting of a commonly agreed upon level to which all should adhere and everyone should take care to adhere to. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redistribution of resources from developed countries to pacific island countries, which are in this case countries that are worse of and need the support to take on action. </t>
-  </si>
-  <si>
-    <t>adaptation, moral responsibility, other(adaptation fund)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redistribution of financial resources to the Pacific low island states to ensure adaptation measures can be taken. </t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and policies, other(warshaw mechanism)</t>
-  </si>
-  <si>
-    <t>Warshaw principle is developed to support developing countries, indicating a prioritarian principle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNFCCC agreements and policies, moral responsibility </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference to article 4 and the support that vulnerable developing countries should get, indicating prioritarian. </t>
-  </si>
-  <si>
-    <t>sufficientarian, utilitarian</t>
-  </si>
-  <si>
-    <t>distant future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting of a specific policy target that everyone should reach, thus setting a level that is deemed to be enough effort (sufficientarian). Reference to a global gobal goal can be defined as utilitarian. </t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, mitigation, policy target</t>
-  </si>
-  <si>
-    <t>other(ocean observation and monitoring)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support of development partners to SIDS, indicating a prioritarian idea. </t>
-  </si>
-  <si>
-    <t>other(redistribution of resources)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call on developed partners to support the SIDS region, referring to both financial and technical resources. </t>
-  </si>
-  <si>
-    <t>UNFCCC argreements and principles, other(GFCS)</t>
-  </si>
-  <si>
-    <t>technical resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calling upon development partners for support. The essence of the GFCS is utilitarian, to use science based climate inforamtion to manage the risks of climate variability. </t>
-  </si>
-  <si>
-    <t>COP20_tonga_PSIDS</t>
+    <t>egalitarian, libertarian</t>
+  </si>
+  <si>
+    <t>prioritarian, egalitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting for the differences between locations, to all have access to financial resources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate 
+change has as much if not more destructive power than the scourge of terrorism, 
+and we do not hear leaders talk about setting up a voluntary market based 
+response to counter terrorism! </t>
+  </si>
+  <si>
+    <t>There are no endless discussions on whether there 
+should be co -financing measures to protect our citizens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference to the support that vulnerable developing countries should get, indicating prioritarian. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlighting the importance of redistribution of resources in light of loss and damage. Resources should be redistributed to help the worst off. </t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presents the imporatance of informed decisionmaking, no specific distribution. </t>
+  </si>
+  <si>
+    <t>technical resources, financial resources, other(general support)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call on developed partners to support the SIDS region,  referring to both financial and technical resources. </t>
+  </si>
+  <si>
+    <t>Calling upon development partners for support to SIDS who are in this case the worse off, needing to enhance the observation system</t>
+  </si>
+  <si>
+    <t>redistribution of resources</t>
+  </si>
+  <si>
+    <t>UNFCCC argreements and principles</t>
+  </si>
+  <si>
+    <t>ocean observation</t>
+  </si>
+  <si>
+    <t>action, IPCC</t>
+  </si>
+  <si>
+    <t>loss and damage, resources</t>
+  </si>
+  <si>
+    <t>adaptation, moral responsibility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +526,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -585,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -596,6 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,21 +884,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -939,796 +925,776 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
         <v>96</v>
       </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
         <v>99</v>
       </c>
-      <c r="H20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B67" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" t="s">
-        <v>91</v>
-      </c>
-      <c r="G69" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" t="s">
-        <v>117</v>
-      </c>
-      <c r="J69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s">
         <v>82</v>
       </c>
-      <c r="H70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="H73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/HLS_man/COP20/COP20_man_tonga_PSIDS.xlsx
+++ b/HLS_man/COP20/COP20_man_tonga_PSIDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139A221-6044-4800-8865-A68439B92D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68043DE-2CC4-4744-BD97-66A0D959F5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t>Relevance</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -368,20 +362,7 @@
 We thank you, Mr. President.</t>
   </si>
   <si>
-    <t xml:space="preserve">
- </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>moral responsibility</t>
-  </si>
-  <si>
-    <t>global</t>
   </si>
   <si>
     <t>allign with Alliance of Small Island States</t>
@@ -393,9 +374,6 @@
 isolated, but incredibly beautiful and unique island nations”.</t>
   </si>
   <si>
-    <t>technical resources, financial resources</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
@@ -403,9 +381,6 @@
   </si>
   <si>
     <t xml:space="preserve">prioritarian </t>
-  </si>
-  <si>
-    <t>measures</t>
   </si>
   <si>
     <t>n.a.</t>
@@ -416,9 +391,6 @@
 needs in the region.</t>
   </si>
   <si>
-    <t xml:space="preserve">new UNFCCC policy </t>
-  </si>
-  <si>
     <t>The Pacific needs certainty and assurances that all countries will do what the eventual treaty will say.</t>
   </si>
   <si>
@@ -426,9 +398,6 @@
   </si>
   <si>
     <t xml:space="preserve">Redistribution of financial resources to the Pacific low island states to ensure adaptation measures can be taken. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNFCCC agreements and policies, moral responsibility </t>
   </si>
   <si>
     <t xml:space="preserve">Support of development partners to SIDS, indicating a prioritarian idea. </t>
@@ -450,15 +419,6 @@
     <t>While many terms are being used to 
 describe it, in the region our stakeholders are very clear that we talk about a 
 legally binding treaty.</t>
-  </si>
-  <si>
-    <t>egalitarian, libertarian</t>
-  </si>
-  <si>
-    <t>prioritarian, egalitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting for the differences between locations, to all have access to financial resources. </t>
   </si>
   <si>
     <t xml:space="preserve">Climate 
@@ -471,21 +431,12 @@
 should be co -financing measures to protect our citizens.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference to the support that vulnerable developing countries should get, indicating prioritarian. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Highlighting the importance of redistribution of resources in light of loss and damage. Resources should be redistributed to help the worst off. </t>
   </si>
   <si>
     <t>general normative statement</t>
   </si>
   <si>
-    <t xml:space="preserve">Presents the imporatance of informed decisionmaking, no specific distribution. </t>
-  </si>
-  <si>
-    <t>technical resources, financial resources, other(general support)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Call on developed partners to support the SIDS region,  referring to both financial and technical resources. </t>
   </si>
   <si>
@@ -501,13 +452,64 @@
     <t>ocean observation</t>
   </si>
   <si>
-    <t>action, IPCC</t>
-  </si>
-  <si>
-    <t>loss and damage, resources</t>
-  </si>
-  <si>
-    <t>adaptation, moral responsibility</t>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>needs based</t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>financial mechanism</t>
+  </si>
+  <si>
+    <t>prioritatiran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting for the differences between locations, to all have access to financial resources, motivated by the need to help the worst off. </t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judgement on the need to take action to account for the survival of the SIDS, the worst off. No preferred shape. </t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference to the support that vulnerable developing countries should get based on CBDR, indicating an equity based shape from a prioritarian motivation by focussing on the developing countries. </t>
+  </si>
+  <si>
+    <t>mitigation</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judgement on the mandatory need to mitigation motivated by the a global goal. The outcome based notice makes this utilitarian. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judgement on the need to take on action, explicitly focussing on the vulnerable countries, thus motivated by the priority to help the worst off. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presents the importance of informed decisionmaking, no specific distribution and motivational principle. </t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>financial resources, technical resources</t>
   </si>
 </sst>
 </file>
@@ -884,11 +886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,9 +898,9 @@
     <col min="1" max="1" width="44.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -910,791 +912,798 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
         <v>75</v>
       </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
+      <c r="B33">
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
         <v>82</v>
       </c>
-      <c r="H33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="G49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
         <v>76</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" t="s">
-        <v>83</v>
       </c>
       <c r="E51" t="s">
         <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="G72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G73" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="74" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s">
-        <v>82</v>
-      </c>
-      <c r="H73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>74</v>
+      <c r="B74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
